--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>50.8192181251113</v>
+        <v>0.46093478274</v>
       </c>
       <c r="R2">
-        <v>50.8192181251113</v>
+        <v>4.14841304466</v>
       </c>
       <c r="S2">
-        <v>0.02263120104961338</v>
+        <v>0.0001584549341763805</v>
       </c>
       <c r="T2">
-        <v>0.02263120104961338</v>
+        <v>0.0001709019697918199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>67.26273576421569</v>
+        <v>84.42180039978</v>
       </c>
       <c r="R3">
-        <v>67.26273576421569</v>
+        <v>759.7962035980199</v>
       </c>
       <c r="S3">
-        <v>0.02995395349214951</v>
+        <v>0.02902156948512234</v>
       </c>
       <c r="T3">
-        <v>0.02995395349214951</v>
+        <v>0.03130128712771192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>3.234311403565467</v>
+        <v>78.62919794226001</v>
       </c>
       <c r="R4">
-        <v>3.234311403565467</v>
+        <v>707.6627814803401</v>
       </c>
       <c r="S4">
-        <v>0.00144032817370283</v>
+        <v>0.02703025428070216</v>
       </c>
       <c r="T4">
-        <v>0.00144032817370283</v>
+        <v>0.02915354908041963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9585420016724</v>
+        <v>1.25226</v>
       </c>
       <c r="H5">
-        <v>10.9585420016724</v>
+        <v>3.75678</v>
       </c>
       <c r="I5">
-        <v>0.5495741193743037</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J5">
-        <v>0.5495741193743037</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>516.9583989742597</v>
+        <v>3.86235929286</v>
       </c>
       <c r="R5">
-        <v>516.9583989742597</v>
+        <v>23.17415575716</v>
       </c>
       <c r="S5">
-        <v>0.230215849300753</v>
+        <v>0.001327758091671029</v>
       </c>
       <c r="T5">
-        <v>0.230215849300753</v>
+        <v>0.000954704564016163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H6">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I6">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J6">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>684.2300506413284</v>
+        <v>4.595211011917778</v>
       </c>
       <c r="R6">
-        <v>684.2300506413284</v>
+        <v>41.35689910726</v>
       </c>
       <c r="S6">
-        <v>0.3047065344871859</v>
+        <v>0.001579689547600771</v>
       </c>
       <c r="T6">
-        <v>0.3047065344871859</v>
+        <v>0.00170377815463927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J7">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>32.90102655367708</v>
+        <v>841.62879732558</v>
       </c>
       <c r="R7">
-        <v>32.90102655367708</v>
+        <v>7574.659175930219</v>
       </c>
       <c r="S7">
-        <v>0.01465173558636492</v>
+        <v>0.2893256067342519</v>
       </c>
       <c r="T7">
-        <v>0.01465173558636492</v>
+        <v>0.3120528644886315</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.31824693663406</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
-        <v>1.31824693663406</v>
+        <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.06611047338304436</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J8">
-        <v>0.06611047338304436</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>62.18699766000481</v>
+        <v>783.8804311853045</v>
       </c>
       <c r="R8">
-        <v>62.18699766000481</v>
+        <v>7054.923880667739</v>
       </c>
       <c r="S8">
-        <v>0.02769358716323861</v>
+        <v>0.2694735280927656</v>
       </c>
       <c r="T8">
-        <v>0.02769358716323861</v>
+        <v>0.2906413548885861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.31824693663406</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
-        <v>1.31824693663406</v>
+        <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.06611047338304436</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J9">
-        <v>0.06611047338304436</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>82.3087750243824</v>
+        <v>38.50513482412666</v>
       </c>
       <c r="R9">
-        <v>82.3087750243824</v>
+        <v>231.03080894476</v>
       </c>
       <c r="S9">
-        <v>0.03665437022541981</v>
+        <v>0.01323685873246678</v>
       </c>
       <c r="T9">
-        <v>0.03665437022541981</v>
+        <v>0.009517764963660491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H10">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I10">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J10">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0023178766533</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N10">
-        <v>3.0023178766533</v>
+        <v>1.104247</v>
       </c>
       <c r="O10">
-        <v>0.02666016296954829</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P10">
-        <v>0.02666016296954829</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q10">
-        <v>3.957796343699888</v>
+        <v>0.5173719880512222</v>
       </c>
       <c r="R10">
-        <v>3.957796343699888</v>
+        <v>4.656347892461</v>
       </c>
       <c r="S10">
-        <v>0.001762515994385947</v>
+        <v>0.0001778562768121627</v>
       </c>
       <c r="T10">
-        <v>0.001762515994385947</v>
+        <v>0.0001918273369335611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,57 +1092,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.30678429864417</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H11">
-        <v>2.30678429864417</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I11">
-        <v>0.1156859141773027</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J11">
-        <v>0.1156859141773027</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.174012646515</v>
+        <v>67.415553</v>
       </c>
       <c r="N11">
-        <v>47.174012646515</v>
+        <v>202.246659</v>
       </c>
       <c r="O11">
-        <v>0.4188986365712714</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P11">
-        <v>0.4188986365712714</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q11">
-        <v>108.8202716770223</v>
+        <v>94.75846983831299</v>
       </c>
       <c r="R11">
-        <v>108.8202716770223</v>
+        <v>852.8262285448169</v>
       </c>
       <c r="S11">
-        <v>0.04846067171937322</v>
+        <v>0.03257499252199833</v>
       </c>
       <c r="T11">
-        <v>0.04846067171937322</v>
+        <v>0.03513384052633156</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.30678429864417</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H12">
-        <v>2.30678429864417</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I12">
-        <v>0.1156859141773027</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J12">
-        <v>0.1156859141773027</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4380552209324</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N12">
-        <v>62.4380552209324</v>
+        <v>188.369503</v>
       </c>
       <c r="O12">
-        <v>0.5544412004591804</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P12">
-        <v>0.5544412004591804</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q12">
-        <v>144.0311254215245</v>
+        <v>88.25661673097655</v>
       </c>
       <c r="R12">
-        <v>144.0311254215245</v>
+        <v>794.309550578789</v>
       </c>
       <c r="S12">
-        <v>0.06414103713268143</v>
+        <v>0.03033985916967628</v>
       </c>
       <c r="T12">
-        <v>0.06414103713268143</v>
+        <v>0.03272313179930619</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.30678429864417</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H13">
-        <v>2.30678429864417</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I13">
-        <v>0.1156859141773027</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J13">
-        <v>0.1156859141773027</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.0023178766533</v>
+        <v>3.084311</v>
       </c>
       <c r="N13">
-        <v>3.0023178766533</v>
+        <v>6.168622</v>
       </c>
       <c r="O13">
-        <v>0.02666016296954829</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P13">
-        <v>0.02666016296954829</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q13">
-        <v>6.925699737402535</v>
+        <v>4.335269501764333</v>
       </c>
       <c r="R13">
-        <v>6.925699737402535</v>
+        <v>26.011617010586</v>
       </c>
       <c r="S13">
-        <v>0.003084205325248067</v>
+        <v>0.001490329802093549</v>
       </c>
       <c r="T13">
-        <v>0.003084205325248067</v>
+        <v>0.001071599316828371</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.27921726704312</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H14">
-        <v>4.27921726704312</v>
+        <v>7.007822</v>
       </c>
       <c r="I14">
-        <v>0.2146040103498836</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J14">
-        <v>0.2146040103498836</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N14">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O14">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P14">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q14">
-        <v>201.8678494726775</v>
+        <v>0.8598184911148889</v>
       </c>
       <c r="R14">
-        <v>201.8678494726775</v>
+        <v>7.738366420034</v>
       </c>
       <c r="S14">
-        <v>0.08989732733829324</v>
+        <v>0.0002955786534558295</v>
       </c>
       <c r="T14">
-        <v>0.08989732733829324</v>
+        <v>0.0003187971038363841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.27921726704312</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H15">
-        <v>4.27921726704312</v>
+        <v>7.007822</v>
       </c>
       <c r="I15">
-        <v>0.2146040103498836</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J15">
-        <v>0.2146040103498836</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N15">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O15">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P15">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q15">
-        <v>267.1860040220058</v>
+        <v>157.478731818522</v>
       </c>
       <c r="R15">
-        <v>267.1860040220058</v>
+        <v>1417.308586366698</v>
       </c>
       <c r="S15">
-        <v>0.1189853051217438</v>
+        <v>0.05413625315093484</v>
       </c>
       <c r="T15">
-        <v>0.1189853051217438</v>
+        <v>0.05838879267934147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.335940666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.007822</v>
+      </c>
+      <c r="I16">
+        <v>0.1073302988371658</v>
+      </c>
+      <c r="J16">
+        <v>0.1148709217512615</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>146.6733274724962</v>
+      </c>
+      <c r="R16">
+        <v>1320.059947252466</v>
+      </c>
+      <c r="S16">
+        <v>0.05042169374142185</v>
+      </c>
+      <c r="T16">
+        <v>0.05438244523870029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.335940666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.007822</v>
+      </c>
+      <c r="I17">
+        <v>0.1073302988371658</v>
+      </c>
+      <c r="J17">
+        <v>0.1148709217512615</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>7.204767493547333</v>
+      </c>
+      <c r="R17">
+        <v>43.228604961284</v>
+      </c>
+      <c r="S17">
+        <v>0.002476773291353302</v>
+      </c>
+      <c r="T17">
+        <v>0.001780886729383375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.27921726704312</v>
-      </c>
-      <c r="H16">
-        <v>4.27921726704312</v>
-      </c>
-      <c r="I16">
-        <v>0.2146040103498836</v>
-      </c>
-      <c r="J16">
-        <v>0.2146040103498836</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N16">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O16">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P16">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q16">
-        <v>12.84757049892704</v>
-      </c>
-      <c r="R16">
-        <v>12.84757049892704</v>
-      </c>
-      <c r="S16">
-        <v>0.005721377889846523</v>
-      </c>
-      <c r="T16">
-        <v>0.005721377889846523</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.286056</v>
+      </c>
+      <c r="H18">
+        <v>8.572112000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1969329434934967</v>
+      </c>
+      <c r="J18">
+        <v>0.1405124740318818</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>1.577621493277334</v>
+      </c>
+      <c r="R18">
+        <v>9.465728959664</v>
+      </c>
+      <c r="S18">
+        <v>0.0005423368320926012</v>
+      </c>
+      <c r="T18">
+        <v>0.0003899591741001861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.286056</v>
+      </c>
+      <c r="H19">
+        <v>8.572112000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1969329434934967</v>
+      </c>
+      <c r="J19">
+        <v>0.1405124740318818</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>288.946835428968</v>
+      </c>
+      <c r="R19">
+        <v>1733.681012573808</v>
+      </c>
+      <c r="S19">
+        <v>0.09933086740862561</v>
+      </c>
+      <c r="T19">
+        <v>0.07142237208537762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.286056</v>
+      </c>
+      <c r="H20">
+        <v>8.572112000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1969329434934967</v>
+      </c>
+      <c r="J20">
+        <v>0.1405124740318818</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>269.1207461833894</v>
+      </c>
+      <c r="R20">
+        <v>1614.724477100336</v>
+      </c>
+      <c r="S20">
+        <v>0.09251527920825482</v>
+      </c>
+      <c r="T20">
+        <v>0.06652172549759477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.286056</v>
+      </c>
+      <c r="H21">
+        <v>8.572112000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1969329434934967</v>
+      </c>
+      <c r="J21">
+        <v>0.1405124740318818</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>13.219529667416</v>
+      </c>
+      <c r="R21">
+        <v>52.878118669664</v>
+      </c>
+      <c r="S21">
+        <v>0.004544460044523634</v>
+      </c>
+      <c r="T21">
+        <v>0.002178417274809204</v>
       </c>
     </row>
   </sheetData>
